--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N2">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O2">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P2">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q2">
-        <v>2892.494313353525</v>
+        <v>3.221821579973</v>
       </c>
       <c r="R2">
-        <v>26032.44882018173</v>
+        <v>28.996394219757</v>
       </c>
       <c r="S2">
-        <v>0.05961928766592746</v>
+        <v>0.0002225374589396369</v>
       </c>
       <c r="T2">
-        <v>0.05961928766592744</v>
+        <v>0.0002225374589396369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P3">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q3">
-        <v>9.401949620585</v>
+        <v>1.745809467979</v>
       </c>
       <c r="R3">
-        <v>84.617546585265</v>
+        <v>15.712285211811</v>
       </c>
       <c r="S3">
-        <v>0.0001937903685626727</v>
+        <v>0.0001205864425304588</v>
       </c>
       <c r="T3">
-        <v>0.0001937903685626727</v>
+        <v>0.0001205864425304588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N4">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P4">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q4">
-        <v>240.5669563546899</v>
+        <v>59.33932354805099</v>
       </c>
       <c r="R4">
-        <v>2165.10260719221</v>
+        <v>534.053911932459</v>
       </c>
       <c r="S4">
-        <v>0.004958499142976162</v>
+        <v>0.004098682049826885</v>
       </c>
       <c r="T4">
-        <v>0.004958499142976161</v>
+        <v>0.004098682049826885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N5">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P5">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q5">
-        <v>6505.636041540865</v>
+        <v>1182.982347158849</v>
       </c>
       <c r="R5">
-        <v>58550.72437386779</v>
+        <v>10646.84112442964</v>
       </c>
       <c r="S5">
-        <v>0.1340923592554166</v>
+        <v>0.08171088279487651</v>
       </c>
       <c r="T5">
-        <v>0.1340923592554166</v>
+        <v>0.08171088279487651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N6">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O6">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P6">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q6">
-        <v>3135.996027465103</v>
+        <v>18.81159202589056</v>
       </c>
       <c r="R6">
-        <v>28223.96424718592</v>
+        <v>169.304328233015</v>
       </c>
       <c r="S6">
-        <v>0.06463827721890371</v>
+        <v>0.001299353109456143</v>
       </c>
       <c r="T6">
-        <v>0.06463827721890369</v>
+        <v>0.001299353109456143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P7">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q7">
         <v>10.19344325914944</v>
@@ -883,10 +883,10 @@
         <v>91.74098933234499</v>
       </c>
       <c r="S7">
-        <v>0.0002101044151298432</v>
+        <v>0.0007040808761221031</v>
       </c>
       <c r="T7">
-        <v>0.0002101044151298432</v>
+        <v>0.0007040808761221032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N8">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P8">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q8">
-        <v>260.8188427492588</v>
+        <v>346.4708140938117</v>
       </c>
       <c r="R8">
-        <v>2347.36958474333</v>
+        <v>3118.237326844305</v>
       </c>
       <c r="S8">
-        <v>0.005375925388262581</v>
+        <v>0.02393141043081298</v>
       </c>
       <c r="T8">
-        <v>0.005375925388262581</v>
+        <v>0.02393141043081298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N9">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P9">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q9">
-        <v>7053.306444966701</v>
+        <v>6907.204739987244</v>
       </c>
       <c r="R9">
-        <v>63479.7580047003</v>
+        <v>62164.84265988519</v>
       </c>
       <c r="S9">
-        <v>0.1453807891676965</v>
+        <v>0.4770940143822174</v>
       </c>
       <c r="T9">
-        <v>0.1453807891676965</v>
+        <v>0.4770940143822174</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N10">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O10">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P10">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q10">
-        <v>943.3177557271555</v>
+        <v>5.953148921634112</v>
       </c>
       <c r="R10">
-        <v>8489.859801544399</v>
+        <v>53.578340294707</v>
       </c>
       <c r="S10">
-        <v>0.01944340301014125</v>
+        <v>0.0004111955304864515</v>
       </c>
       <c r="T10">
-        <v>0.01944340301014124</v>
+        <v>0.0004111955304864514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.230717</v>
       </c>
       <c r="O11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P11">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q11">
-        <v>3.066220726728889</v>
+        <v>3.225834669517889</v>
       </c>
       <c r="R11">
-        <v>27.59598654056</v>
+        <v>29.032512025661</v>
       </c>
       <c r="S11">
-        <v>6.320008814196618E-05</v>
+        <v>0.0002228146508100273</v>
       </c>
       <c r="T11">
-        <v>6.320008814196618E-05</v>
+        <v>0.0002228146508100273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N12">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P12">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q12">
-        <v>78.45515212353776</v>
+        <v>109.6447525792343</v>
       </c>
       <c r="R12">
-        <v>706.0963691118399</v>
+        <v>986.8027732131089</v>
       </c>
       <c r="S12">
-        <v>0.001617095757711041</v>
+        <v>0.007573375501834119</v>
       </c>
       <c r="T12">
-        <v>0.001617095757711041</v>
+        <v>0.007573375501834119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N13">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P13">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q13">
-        <v>2121.657408954071</v>
+        <v>2185.865948653777</v>
       </c>
       <c r="R13">
-        <v>19094.91668058664</v>
+        <v>19672.79353788399</v>
       </c>
       <c r="S13">
-        <v>0.04373101195359862</v>
+        <v>0.1509819962780704</v>
       </c>
       <c r="T13">
-        <v>0.04373101195359862</v>
+        <v>0.1509819962780704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>23.65990166666667</v>
+        <v>0.1419263333333333</v>
       </c>
       <c r="N14">
-        <v>70.979705</v>
+        <v>0.425779</v>
       </c>
       <c r="O14">
-        <v>0.29979939417547</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="P14">
-        <v>0.2997993941754699</v>
+        <v>0.002583058778296354</v>
       </c>
       <c r="Q14">
-        <v>7573.284217513634</v>
+        <v>9.410083205350668</v>
       </c>
       <c r="R14">
-        <v>68159.5579576227</v>
+        <v>84.69074884815599</v>
       </c>
       <c r="S14">
-        <v>0.1560984262804976</v>
+        <v>0.0006499726794141223</v>
       </c>
       <c r="T14">
-        <v>0.1560984262804975</v>
+        <v>0.0006499726794141221</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.230717</v>
       </c>
       <c r="O15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="P15">
-        <v>0.0009744872400636478</v>
+        <v>0.001399682868699959</v>
       </c>
       <c r="Q15">
-        <v>24.61669028931711</v>
+        <v>5.099044731865333</v>
       </c>
       <c r="R15">
-        <v>221.550212603854</v>
+        <v>45.891402586788</v>
       </c>
       <c r="S15">
-        <v>0.0005073923682291658</v>
+        <v>0.0003522008992373697</v>
       </c>
       <c r="T15">
-        <v>0.0005073923682291658</v>
+        <v>0.0003522008992373697</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.967779333333333</v>
+        <v>2.613991</v>
       </c>
       <c r="N16">
-        <v>5.903337999999999</v>
+        <v>7.841973</v>
       </c>
       <c r="O16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="P16">
-        <v>0.02493412949536815</v>
+        <v>0.04757462720522382</v>
       </c>
       <c r="Q16">
-        <v>629.865346806506</v>
+        <v>173.314368308708</v>
       </c>
       <c r="R16">
-        <v>5668.788121258554</v>
+        <v>1559.829314778372</v>
       </c>
       <c r="S16">
-        <v>0.01298260920641837</v>
+        <v>0.01197115922274984</v>
       </c>
       <c r="T16">
-        <v>0.01298260920641837</v>
+        <v>0.01197115922274984</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.21452433333334</v>
+        <v>52.11224233333333</v>
       </c>
       <c r="N17">
-        <v>159.643573</v>
+        <v>156.336727</v>
       </c>
       <c r="O17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477799</v>
       </c>
       <c r="P17">
-        <v>0.6742919890890983</v>
+        <v>0.9484426311477798</v>
       </c>
       <c r="Q17">
-        <v>17033.4062649089</v>
+        <v>3455.176533183159</v>
       </c>
       <c r="R17">
-        <v>153300.6563841801</v>
+        <v>31096.58879864843</v>
       </c>
       <c r="S17">
-        <v>0.3510878287123866</v>
+        <v>0.2386557376926155</v>
       </c>
       <c r="T17">
-        <v>0.3510878287123866</v>
+        <v>0.2386557376926155</v>
       </c>
     </row>
   </sheetData>
